--- a/data-test.xlsx
+++ b/data-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/burne138_msu_edu/Documents/CHI 2021 - 2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{A3BD23A5-7F8E-47B4-966C-42A0D7F08226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6D99DEA-168F-4233-882D-C06838303B43}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{A3BD23A5-7F8E-47B4-966C-42A0D7F08226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8840767B-3835-4DD5-ACD2-AB51C00E5A8C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$48</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Date &amp; Time</t>
   </si>
@@ -60,19 +60,10 @@
     <t>2021-05-04T13:23:00.000-04:00</t>
   </si>
   <si>
-    <t>42.713905098333335 -84.49423799333333; 42.713907406666664 -84.49421755333333; 42.713882715 -84.49421114833333; 42.71388695666667 -84.49424542666667; 42.713905098333335 -84.49423799333333</t>
-  </si>
-  <si>
     <t xml:space="preserve">In area revealed by construction scraping. Only have removed 2 or 3 feet.  Scatter of bricks in south eastern portion of the site, roughly 30 meters west of Harrison Road. Several types of bricks - red, deep purplish-red, and yellow. All broken. This is the largest concentration of brick, but there are broken bricks scattered throughout exposed area. Ceramic drain pipe also found in exposed area. </t>
   </si>
   <si>
-    <t>42.71396689 -84.49467798166667; 42.71396639 -84.49472675166666; 42.713969713333334 -84.49472782166667;  42.71396915 -84.49474282666667 0.0; 42.713997255 -84.49473850833333; 42.71403287 -84.49467574666667; 42.71396689 -84.49467798166667;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Foundation 1, foundation of one of the outbuildings on the property. Quite west of where house was. Scraping work by construction crews exposed additional parts of the fountain. Believe all corners mostly visible. North west corner still buried, had to take location where exposed, but could presumably extend corner to make rectangle based on position of NE corner. </t>
-  </si>
-  <si>
-    <t>42.713927876666666 -84.49473017; 42.71392699 -84.494748475; 42.713949255 -84.49474699333334; 42.713948965 -84.49472982666667; 42.713927876666666 -84.49473017</t>
   </si>
   <si>
     <t>Found a second foundation just 1 meter south of foundation 1. Will call this foundation 2, though it is possible it is associated with foundation 1. This foundation is much smaller and the cement is much fiber and of better quality than that used in Foundation 1. The foundation is rectangular and the long sides are oriented north-south.
@@ -81,24 +72,15 @@
 Thickness of foundation walls - 15 cm</t>
   </si>
   <si>
-    <t>42.713965028333334 -84.49473999833333 227.03599942016604 0.0;42.71396544833333 -84.49467228833333 227.36999942016604 0.0;42.714051518333335 -84.49467324333334 227.426999420166 0.0;42.71405316333333 -84.49473232833333 227.012999420166 0.0;42.713965028333334 -84.49473999833333 227.03599942016604 0.0;</t>
-  </si>
-  <si>
     <t>With all corners of foundation 1 exposed this is the final measurement. Took a photo of north wall and close up of north west corner. North west corner of foundation 1 is roughly 1 meter south of the south east corner of foundation 3. Photo of this also taken with trowel blade for north arrow.</t>
   </si>
   <si>
-    <t>42.71393186 -84.49432403833333 225.79299942016604 0.0; 42.71393432 -84.49432761333334 225.974999420166 0.0; 42.71393611333333 -84.494301865 225.50999942016603 0.0; 42.71393087 -84.49430180833333 225.44699942016604 0.0; 42.71393186 -84.49432403833333 225.79299942016604 0.0</t>
-  </si>
-  <si>
     <t>Concrete floor, possibly basement floor. One small portion decorated with cut stone set into the concrete, but rest of it plain. Also there is a concrete wall, north wall was still intact, west wall removed. Can see where west wall would have run into north wall and the floor. There is a brick outline in the floor with dark soil and charcoal. Took point of se corner of exposed floor and took geo shape of bricks. Brick feature is 2m long and 70 cm wide and may be base of chimney.</t>
   </si>
   <si>
     <t>area_longitude</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>test 1</t>
   </si>
   <si>
@@ -106,14 +88,25 @@
   </si>
   <si>
     <t>area_latitude</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t>test 4</t>
+  </si>
+  <si>
+    <t>test 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -153,21 +146,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -462,229 +449,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="36.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="69.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="49.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="64.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="29.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="70.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17" style="1" customWidth="1"/>
-    <col min="26" max="27" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="49.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="64.28515625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="29.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="70.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" style="1" customWidth="1"/>
+    <col min="25" max="26" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="165" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7">
+        <v>42.713905098333299</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-84.4942379933333</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42.713882714999997</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-84.494211148333306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7">
+        <v>42.713886956666599</v>
+      </c>
+      <c r="D4" s="7">
+        <v>-84.494245426666595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42.713905098333299</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-84.4942379933333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42.7139074066666</v>
+      </c>
+      <c r="D6" s="7">
+        <v>-84.4942175533333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>42.713966890000002</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-84.494677981666598</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>42.713966390000003</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-84.494726751666605</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7">
+        <v>42.713969713333299</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-84.494727821666601</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>42.713969149999997</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-84.494742826666595</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7">
+        <v>42.713997255000002</v>
+      </c>
+      <c r="D12" s="7">
+        <v>-84.494738508333299</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>42.714032869999997</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-84.494675746666601</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>42.713966890000002</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-84.494677981666598</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7">
+        <v>42.713927876666602</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-84.494730169999997</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="7">
+        <v>42.713926989999997</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-84.494748474999994</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="7">
+        <v>42.713949255000003</v>
+      </c>
+      <c r="D18" s="7">
+        <v>-84.494746993333294</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="7">
+        <v>42.713948965</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-84.4947298266666</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="7">
+        <v>42.713927876666602</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-84.494730169999997</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="165" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="C22" s="7">
+        <v>42.713965028333298</v>
+      </c>
+      <c r="D22" s="7">
+        <v>-84.494739998333301</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="7">
+        <v>42.713965448333298</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-84.494672288333305</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="7">
+        <v>42.714051518333299</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-84.494673243333295</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="7">
+        <v>42.714053163333297</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-84.494732328333299</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="7">
+        <v>42.713965028333298</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-84.494739998333301</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" ht="195" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9">
-        <v>42.713905098333299</v>
-      </c>
-      <c r="E2" s="9">
-        <v>-84.4942379933333</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="9">
-        <v>42.713882714999997</v>
-      </c>
-      <c r="E3" s="9">
-        <v>-84.494211148333306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="9">
-        <v>42.713886956666599</v>
-      </c>
-      <c r="E4" s="9">
-        <v>-84.494245426666595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="9">
-        <v>42.713905098333299</v>
-      </c>
-      <c r="E5" s="9">
-        <v>-84.4942379933333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="9">
-        <v>42.7139074066666</v>
-      </c>
-      <c r="E6" s="9">
-        <v>-84.4942175533333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>44355</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" ht="195" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44355</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C28" s="7">
+        <v>42.713931860000002</v>
+      </c>
+      <c r="D28" s="7">
+        <v>-84.494324038333303</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44361</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="195" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="7">
+        <v>42.71393432</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-84.494327613333297</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="7">
+        <v>42.713936113333297</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-84.494301864999997</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
-        <v>44363</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C31" s="7">
+        <v>42.713930869999999</v>
+      </c>
+      <c r="D31" s="7">
+        <v>-84.494301808333304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C32" s="7">
+        <v>42.713931860000002</v>
+      </c>
+      <c r="D32" s="7">
+        <v>-84.494324038333303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q27"/>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA27" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:AA27">
-    <sortCondition ref="B8:B27"/>
+  <autoFilter ref="A1:Z48" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:Z48">
+    <sortCondition ref="B19:B48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
